--- a/RestAssuredExample/test-data/testData.xlsx
+++ b/RestAssuredExample/test-data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14790" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>JSON Body File Name</t>
   </si>
   <si>
-    <t>http://172.16.2.154:9090/task_manager/v1/</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>false,You are successfully registered</t>
+  </si>
+  <si>
+    <t>http://172.16.2.96:9090/task_manager/v1/</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V3" sqref="V3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -558,7 +558,8 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -624,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
@@ -653,319 +654,319 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
         <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
       <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" t="s">
         <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" t="s">
         <v>63</v>
       </c>
-      <c r="U6" t="s">
-        <v>64</v>
-      </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>42</v>
       </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/RestAssuredExample/test-data/testData.xlsx
+++ b/RestAssuredExample/test-data/testData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="14790" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="Authorization" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Authorization" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Unique Value</t>
   </si>
@@ -75,9 +76,6 @@
     <t>JSON Object Paths</t>
   </si>
   <si>
-    <t>Register1</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -99,21 +97,6 @@
     <t>x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>name,email,password</t>
-  </si>
-  <si>
-    <t>email,password</t>
-  </si>
-  <si>
-    <t>yathi,yathibc@gmail.com,yathibc</t>
-  </si>
-  <si>
-    <t>yathibc@gmail.com,yathibc</t>
-  </si>
-  <si>
-    <t>Login1</t>
-  </si>
-  <si>
     <t>CreateTask1</t>
   </si>
   <si>
@@ -153,12 +136,6 @@
     <t>JSON Keys</t>
   </si>
   <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>tasks</t>
   </si>
   <si>
@@ -171,12 +148,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>error,name,email</t>
-  </si>
-  <si>
-    <t>false,yathi,yathibc@gmail.com</t>
-  </si>
-  <si>
     <t>error,message</t>
   </si>
   <si>
@@ -195,9 +166,6 @@
     <t>false,Task deleted succesfully</t>
   </si>
   <si>
-    <t>Error?,Name,Email</t>
-  </si>
-  <si>
     <t>Error?,Message</t>
   </si>
   <si>
@@ -210,20 +178,77 @@
     <t>error,task,status</t>
   </si>
   <si>
-    <t>false,You are successfully registered</t>
-  </si>
-  <si>
     <t>http://172.16.2.96:9090/task_manager/v1/</t>
+  </si>
+  <si>
+    <t>SessionAPI</t>
+  </si>
+  <si>
+    <t>https://staging.lms.getvymo.com</t>
+  </si>
+  <si>
+    <t>/users/session</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>session.vm</t>
+  </si>
+  <si>
+    <t>email,password,timestamp</t>
+  </si>
+  <si>
+    <t>user.moolya@vymo.in,-----BEGIN PGP MESSAGE-----\r\nVersion: OpenPGP.js v2.3.5\r\nComment: http://openpgpjs.org\r\n\r\nwUwDdmQ6hebWwH8BAf4oqWJFADxvunOt04Pv/TR0VhMKYjzZ+yO8neKtnOT9\nvE7eXEDXmSAHrLv8dPsfPmXVTkS4qOoQJGttp52Ykx+z0jwBI6dobE/aEf2B\nPfELSJ+3DUx/V6lLF3y7cOlpz69MOfkup/0M0NzQLFUo+xulW+xgg+6WUBYS\nurypF+I=\r\n=UJJ+\r\n-----END PGP MESSAGE-----\r\n,-----BEGIN PGP MESSAGE-----\r\nVersion: OpenPGP.js v2.3.5\r\nComment: http://openpgpjs.org\r\n\r\nwUwDdmQ6hebWwH8BAfkBuViD+DQMhGS4cXjhcHjj0wZ/emXkG1BzjrFD3VXt\nMM5PM5yeZXVyoDfeaNQEf+qWaB/HaVxiVw7Ed2kravjI0kcBM3f1ClaEMN8D\nfQKPVrJ0rLBUechgW0O7iioisfK74/yPVCZYcIIM1JtHbB3lUuwBDMJ7W2UA\nQV44LOp4ayzkqndPKaqGPg==\r\n=rlsh\r\n-----END PGP MESSAGE-----\r\n</t>
+  </si>
+  <si>
+    <t>user.name,email,user_hierarchy.code</t>
+  </si>
+  <si>
+    <t>user.moolya,user.moolya@vymo.in,user_moolya</t>
+  </si>
+  <si>
+    <t>user name,email,user_hierarchy.code</t>
+  </si>
+  <si>
+    <t>HelloCardAPI</t>
+  </si>
+  <si>
+    <t>results.name</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/hello/cards
+</t>
+  </si>
+  <si>
+    <t>filters,v</t>
+  </si>
+  <si>
+    <t>%7B%7D,167</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,18 +271,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -304,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,15 +621,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -578,7 +654,7 @@
     <col min="22" max="22" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,13 +698,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
@@ -646,354 +722,364 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="T3" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U6" t="s">
         <v>52</v>
       </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
